--- a/planejamento.xlsx
+++ b/planejamento.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,155 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Perguntas</t>
+          <t>Customer</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Answers</t>
+          <t>Offer</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Justification</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Acc Sales</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Prior. Suggested</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Prior. Sales Team</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Qual o seu provedor atual de internet</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Prob 90%</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>500</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Prob 30%</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Prob 80%</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>200</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Prob 100%</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
